--- a/biology/Zoologie/Alouette_de_Clot-Bey/Alouette_de_Clot-Bey.xlsx
+++ b/biology/Zoologie/Alouette_de_Clot-Bey/Alouette_de_Clot-Bey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramphocoris clotbey
 L'Alouette de Clot-Bey (Ramphocoris clotbey) est une espèce de passereaux. Comme toutes les alouettes elle appartient à la famille des Alaudidae. C'est la seule espèce du genre Ramphocoris.
@@ -512,11 +524,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ramphocoris clotbey a été décrite pour l’ornithologue français Charles-Lucien Bonaparte en 1850[1]; il l'a dédié au médecin français Antoine-Barthélemy Clot (1793-1868), appelé Clot-Bey par les Égyptiens.
-Synonymie
-Rhamphocoris clotbey
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ramphocoris clotbey a été décrite pour l’ornithologue français Charles-Lucien Bonaparte en 1850; il l'a dédié au médecin français Antoine-Barthélemy Clot (1793-1868), appelé Clot-Bey par les Égyptiens.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhamphocoris clotbey
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alouette_de_Clot-Bey</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alouette_de_Clot-Bey</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
